--- a/analyses/T7-incubations/unipept/GO/organizing/CV_GO.xlsx
+++ b/analyses/T7-incubations/unipept/GO/organizing/CV_GO.xlsx
@@ -15068,7 +15068,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E31" activeCellId="0" sqref="E31"/>
+      <selection pane="topLeft" activeCell="L24" activeCellId="0" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
